--- a/biology/Zoologie/Gnoriste/Gnoriste.xlsx
+++ b/biology/Zoologie/Gnoriste/Gnoriste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gnorista
 Gnoriste est un genre d'insectes diptères nématocères de la famille des Mycetophilidae (littéralement « amis des champignons »).
@@ -512,15 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Gnoriste est décrit en 1818 par l'entomologiste allemand Johann Wilhelm Meigen[1],[2].
-Synonyme
-Selon GBIF en 2023, ce genre Gnoriste a un synonyme : 
-Gnorista Berthold, 1827[3].
-Fossiles
-Selon Paleobiology Database en 2023, ce genre a quatre fossiles référencés, un du Miocène en Croatie, deux de l'Oligocène de France et un de l'Éocène des États-Unis dans l'Utah[2].
-Ceci atteste la présence du genre depuis le Bridgérien de l'Éocène inférieur soit 50,3 Ma avant notre ère.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Gnoriste est décrit en 1818 par l'entomologiste allemand Johann Wilhelm Meigen,.
 </t>
         </is>
       </c>
@@ -546,12 +554,89 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF en 2023, ce genre Gnoriste a un synonyme : 
+Gnorista Berthold, 1827.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gnoriste</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gnoriste</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, ce genre a quatre fossiles référencés, un du Miocène en Croatie, deux de l'Oligocène de France et un de l'Éocène des États-Unis dans l'Utah.
+Ceci atteste la présence du genre depuis le Bridgérien de l'Éocène inférieur soit 50,3 Ma avant notre ère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gnoriste</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gnoriste</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il y a treize espèces décrites dans le genre Gnoriste dont deux fossiles[4],[3],[5],[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a treize espèces décrites dans le genre Gnoriste dont deux fossiles :
 G. apicalis Meigen, 1818
 G. bilineata Zetterstedt, 1852
 G. cornuta Zaitzev, 1994
